--- a/500all/speech_level/speeches_CHRG-114hhrg96999.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96999.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Neugebauer. The Subcommittee on Financial Institutions and Consumer Credit will come to order.    Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``Examining the Designation and Regulation of Bank Holding Company SIFIs.''    Before we begin, I would like to thank the witnesses for traveling to Washington to testify today.    For situational awareness, we are expecting 4 votes sometime in the next 30 or 40 minutes. This first series of votes is expected to last possibly over an hour-and-a-half. Per an agreement with the Minority, Members' oral statements will be limited to 1 minute per side.    And without objection, the written opening statements of the chairman and the ranking member will be made a part of the record.    I now recognize myself for 1 minute.    Good afternoon.    Over the last several years, we have seen bipartisan and bicameral interest in reexamining Dodd-Frank's regulatory framework for bank holding companies with assets greater than $50 billion. Dodd-Frank's arbitrary asset threshold, set under Section 165, does not adequately consider the systemic risk profiles of bank holding companies.    Section 165's objective is to mitigate risk to the financial stability of the United States due to the distress and failure of the financial institutions. I am concerned that using a static asset threshold does not provide enough flexibility for regulators when designating systemic importance. Recent evidence shows vast differences in systemic importance between the smallest U.S. G-SIBs and the largest U.S. regional banks, yet they remain subject to the same Section 165 standards.    Even banking regulators have highlighted the flaws in the Section 165 threshold. So, for example, Comptroller of the Currency Thomas Curry recently testified that there are currently nonsystemically important banks being regulated as systemically important due to the current threshold.    As policymakers, we must always strive to be precise when improving legislation and frameworks so as to minimize unintended consequences. I hope that this hearing will allow members to begin considering different ways of measuring systemic importance and the regulatory consequences of being designated as a SIFI.    I now recognize the ranking member of the subcommittee, Mr. Clay, for 1 minute.</t>
   </si>
   <si>
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman.    And I want to thank each of our witnesses for coming here today and testifying.    I also would like to make clear to the subcommittee that I know that this is an abbreviated hearing, but if we are going to move forward with legislation, I look forward to having another hearing before that occurs.    The financial crisis was due in no small part to regulators' failure to use their existing authority to rein in banks' risky lending and trading activities. We responded in the Dodd-Frank Act by clearly identifying for regulators which financial institutions would be subject to minimum prudential standards, while also granting the Federal Reserve discretion in its application of these standards.    I welcome debate on regulators' efforts to tailor their approaches to the particular risk that individual banks present, but I remain skeptical of proposals that would eliminate Dodd-Frank's clear standard for a subjective activities-based designation process.    And I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Simmons</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Simmons. I would be happy to maybe give a couple of examples.    If you look at asset size, we are $58 billion in total assets, and so, among the kind of traditional bank holding companies, we are the smallest of the SIFIs. We are one 45th the size of JPMorgan Chase.    But if you use other measures, it becomes even more pronounced. And so, for example, if you look at the data that we file on what is known as an FR Y-15 form every quarter showing systemic risk indicators, on one of the indicators for interconnectedness with the financial system, that measure being intra-financial-system assets, we are 1/264th of JPMorgan Chase's size. If you look at payments activity, they are 775 times larger than we are. If you look at assets under custody, they are about 5,900 times our size. And if you look at derivatives, over-the-counter derivatives activity, they are about 21,260 times our size.    So if you look at the things that we believe and that the Basel Committee has identified as being important in thinking about systemic risk, size is one factor, but when you take other things into account, there is even a greater disparity between a company like us and a company like JPMorgan Chase.</t>
   </si>
   <si>
@@ -103,18 +94,12 @@
     <t xml:space="preserve">    Chairman Neugebauer. Okay.    Dr. Barth, in your testimony, you note that under the Basel Committee framework for measuring systemic importance, the metric of size is only 20 percent of the calculation, but under Section 165 of the Dodd-Frank Act, it says asset size is 100 percent of the calculation.    Can you explain the significance of this distinction and how an asset-size-only calculation can mischaracterize systemic risk?</t>
   </si>
   <si>
-    <t>Barth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barth. Yes. I would be happy to.    As I indicate in my testimony, size per se is a totally inappropriate way to go about designating SIFIs. It turns out that--I know of no regulatory authority that would use just size. In fact, all the evidence that I present in my testimony indicates that size per se is inappropriate, that one should go well beyond size.    For designating G-SIBs, there are 4 factors used, and, as you point out, size only represents 20 percent of what goes into determining whether or not a G-SIB is significantly important.    So I think using just size, the $50 billion threshold is totally arbitrary and static, and one can come up with a much better way to go about designating SIFIs if one wishes to. And I indicate the way to go about doing that in my written testimony.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Neugebauer. Thank you.    Dr. Kupiec, some commentators have recently argued that the meaning of ``systemic importance'' under Dodd-Frank implies that a bank holding company's failure could cause credit intermediation issues in particular region.    Do you consider this definition of ``systemic importance'' representative of Congress' original intent in Section 165?</t>
   </si>
   <si>
-    <t>Kupiec</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kupiec. Congress' original bill designated everybody over $50 billion, which is a very broad-brush approach. I would not consider regional banks systemically important. Banks that are primarily engaged in deposit taking and lending in a certain region of the economy, even of significant size, I would not consider, if one of those institutions were in peril, that it would cause a systemic crisis.</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman.    Mr. Johnson, you note in your testimony that there is substantial differentiation in the Fed's application of heightened prudential standards, dependent in part on size but also varying according to factors such as business model, complexity, and opaqueness.    Could you provide examples of how regulators have differentiated their regulatory approaches toward financial institutions above the $50 billion threshold?</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Yes, Congressman.    So Dodd-Frank, as you have already stated, sets a threshold above which there has to be enhanced prudential supervision, but the exact nature of that supervision and the standards are very much at the discretion of the regulators.    And we know from statements made by Federal Reserve Governor Tarullo and by FDIC Chairman Gruenberg that they are tailoring the content of the stress test, for example. The nature of the living wills are absolutely differentiated between the largest banks and what we are calling here the regional banks. Capital standards are also differentiated. And the list goes on.    So for every single category of items that are overseen by regulators, to the extent that we can see this from the outside, there is substantial differentiation above the $50 billion threshold. And the regulators appear to be taking into consideration exactly the kind of criteria that make sense, which is partly size but also, as the other witnesses have already said, interconnection; the precise nature of your business; is there substitutability, so if you fail, can someone else step in and provide the same services? So that seems to be exactly in line with the intent of Dodd-Frank.</t>
   </si>
   <si>
@@ -163,9 +145,6 @@
     <t>400313</t>
   </si>
   <si>
-    <t>Stevan Pearce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pearce. Thank you, Mr. Chairman.    I would just start with the statement that Bear Stearns and Lehman were not bank holding companies and would not have been subject to that particular provision.    Mr. Simmons, now, when I think about business--my wife and I had a small business. Certainly, we were not in the $50 billion category, but when we got up to 50 employees, then we came under different rules. So we just found ourselves staying below $50 billion because it was so much easier.    Do you think that banks will actually--or the financial institutions will decide to self-limit their size just to not have to hassle with it?</t>
   </si>
   <si>
@@ -223,9 +202,6 @@
     <t>400179</t>
   </si>
   <si>
-    <t>Rubén Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hinojosa. Thank you, Chairman Neugebauer and Ranking Member Clay, for holding this hearing.    As we examine the process for designating certain financial institutions as systemically important, SIFIs, under the Dodd-Frank Act, we would do well to remember that during the financial crisis of 2007 and 2008, the American financial system teetered on the brink of collapse. Every major American financial institution either failed or was taken over by a larger institution or required government assistance to weather the storm.    My first question is for Dr. Simon Johnson.    In your testimony, you indicated that it would be more sensible to measure banks by their total exposure, as defined in the systemic risk reports to include on- and off-balance-sheet items, rather than by their total consolidated assets as is currently done under Dodd-Frank.    Do you think the current measure of $50 billion consolidated assets is a good proxy for banks that pose a systemic risk to our financial system?</t>
   </si>
   <si>
@@ -247,9 +223,6 @@
     <t xml:space="preserve">    Mr. Hinojosa. Thank you.    My next question is for Mr. Satish Kini.    There is, at this time, a considerable amount of debate regarding whether the current process for designating a non-bank SIFI by the FSOC is as transparent as it should be. So do you believe that to be the case? Why or why not?</t>
   </si>
   <si>
-    <t>Kini</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kini. I think there is debate, Congressman, about the transparency of the FSOC process for non-bank SIFIs. That process does not necessarily need to be imported into a process for bank holding companies if Congress chooses a different threshold or a different metric by which to apply these enhanced prudential standards to bank holding companies.</t>
   </si>
   <si>
@@ -262,9 +235,6 @@
     <t>412292</t>
   </si>
   <si>
-    <t>Blaine Luetkemeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Luetkemeyer. Thank you, Mr. Chairman.    I would like to start out with--we have been talking about the intent of Congress here with regards to Dodd-Frank. And I think it was interesting that when we had the former author of the bill, Mr. Frank himself, in this committee a little over a year ago, he indicated that the SIFI situation has gone well beyond the intent of what he and his coauthor, Mr. Dodd, had intended. And I think, as we go through this process, we need to remember that this was supposed to be about the big guys, not talking about regional banks.    And it is kind of interesting that, as we are talking about this, I have in front of me here the Federal Reserve System order approving the merger of bank holding companies between BB&amp;T and Susquehanna Bank. And in there, in the financial stability portion, it lists the metrics by which they determined that combining these 2 banks, which would be around $200 billion in assets now--they listed 5 separate things, which, coincidently, are almost exactly word-for-word what our criteria is in our bill that we are trying to talk about here, for designating a SIFI.    They list those criteria, and then they go on and talk about in the final closing discussion here that this transaction would not appear to result in meaningfully greater or more concentrated risks to the stability of the U.S. banking or financial system. That is the Fed talking about this, with a $200-billion-asset institution.    So what does that tell you? It tells you that--Mr. Simmons, you are in the business, you are in this category here we are talking about. What do you think about the comments I just made?</t>
   </si>
   <si>
@@ -304,9 +274,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you, Mr. Chairman, for holding this important debate.    I believe, as many of you said in your testimony, that the $50 billion threshold doesn't accurately measure systemic importance. And a lot of you have said in your testimony and talked about the advantage of tailoring the enhanced prudential standards so that they are appropriate for the amount of systemic risk that each bank poses. And I personally think that is a more accurate standard. To the extent that a prudential standard is intended to mitigate systemic risk, it should be tailored to the bank's systemic risk.    And while the Fed absolutely has the discretion to tailor the enhanced prudential standards based on each SIFI's systemic risk, that is not what they have done, unfortunately. And to the extent that they have tailored at all, they have based it purely on asset size, which even the Fed agrees doesn't properly measure systemic risk.    In fact, in the Fed's proposed capital surcharge for the biggest eight banks, they propose to calculate each bank's systemic risk based on an indicator-based test that goes beyond mere asset size and then require higher capital surcharges for banks that pose more systemic risk and lower surcharges for banks that pose less systemic risk.    So one idea that I think is worth pursuing is extending that proposal to all 33 banks with over $50 billion in assets and calculating their domestic systemic importance and then requiring the Fed to tailor the prudential standards based on each bank's actual systemic risk.    So, Mr. Simmons, if your bank ended up with a very low systemic risk score, then the prudential standards would have to be tailored to reflect that lower risk. And because the Fed's indicator-based test is based on the same test, I believe, that Mr. Luetkemeyer's bill would require--and I believe there are four standards in it: size; interconnectedness; complexity; and substitutability--using them, I think this might be a good compromise.    So I would like to ask each of the witnesses whether they think it would be helpful to extend the Fed's indicator-based test for systemic risk to all 33 banks over $50 billion?    I would like to start with Mr. Kini and welcome him, because his firm is located in the district I am privileged to represent, and have each witness give your thoughts on this idea.    Thank you.</t>
   </si>
   <si>
@@ -346,9 +313,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thank you, Mr. Chairman.    I am confused, so help me, because I wasn't here when we did Dodd-Frank. And I am hearing some things that sound inconsistent to my layman's ear. I hear talk of tailoring, and I hear talk of Fed nuance. I hear Dr. Johnson saying that is probably one way around the concerns that we have on this side of the aisle.    Yet, Dr. Johnson, in reading your opening testimony, you are critical of the Fed's lack of ability to apply the same nuance before the crisis. So I guess one of the questions I have--and we probably won't get a chance to get into it here today--is, why do you think the Fed is going to do a good job now, when you thought they did a lousy job before the crisis?    So I am not sure if--if you don't like the fact of Congress setting the nuance, you are okay now, I guess, with the Fed setting this nuance, but you were unhappy with the way the Fed did it before the crisis. So it seems like you are taking the exact opposite position after the crisis as you took before the crisis.    But let me start from scratch, and see if I can get a handle on one thing here.    Dr. Johnson, you just said you would be okay with changing the number, which makes me wonder, how did we get the number in the first place? Does anybody know? Did we just pick $50 billion? I wasn't here. Does anybody know why we have $50 billion? Is it defensible?    Dr. Kupiec?</t>
   </si>
   <si>
@@ -394,9 +358,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. So, $50 billion is a safe harbor. If you are not over $50 billion, they can't designate you a SIFI, they can't impose additional standards.    Everyone over $50 billion should not be treated the same way. And perhaps either the regulators or this committee needs to look at creating a process by which those who are over $50 billion provide information, but I think most of the regional banks would ultimately be determined to not be SIFIs. It would be nice to get a few forms filled out and be in a position to at least take a look.    The focus of Dodd-Frank is on asset size. I think that is wrong. I think Dr. Johnson focuses on total exposure. I have said before here we ought to be focusing on the size of the liabilities of an institution, not the size of the assets.    Lehman Brothers didn't do us any harm because they had too many assets. Their problem was they had too many liabilities, particularly contingent liabilities, particularly to U.S. persons. So when Lehman Brothers went under, it was clear that a lot of American institutions would not be paid. What is a liability on Lehman Brothers' balance sheet as an asset--or was listed as an asset on the balance sheet of so many U.S. institutions.    Dr. Johnson, does the law require that the FSOC impose significant additional standards on regional institutions that may just happen to be over $50 billion?</t>
   </si>
   <si>
@@ -442,9 +403,6 @@
     <t>412551</t>
   </si>
   <si>
-    <t>Robert Pittenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Mr. Chairman.    Overall, do you believe that the SIFI designation has been a help or a hindrance? Has it impaired competitive markets? Has it given it an advantage?    And, also, I would like to know what recommendations you would provide for statutory reform of SIFI at this time.    Mr. Simmons, we will start with you.</t>
   </si>
   <si>
@@ -484,9 +442,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman.    And I want to thank the ranking member.    And I thank the witnesses for your help today.    Dr. Johnson, I am not sure if you are familiar with Thomas Hoenig's proposal over at the FDIC. I know we are talking about regional banks that might or might not hit the tripwire of $50 billion, but he actually came out with a broader analysis in talking about risk, as you are talking about exposure as well, as being probably the most critical factor here.    He rolled out a proposal, and we are actually sponsoring legislation consistent with that. He talked about the fact that if you have a smaller community bank that is well-capitalized, it meets the liquidity coverage ratio, it holds effectively zero trading assets or liabilities, has no derivative exposure other than interest rates and foreign exchange derivatives, and even then has less than $3 billion in notional derivative exposure and maintains a ratio of GAAP equity to assets of at least 10 percent, and then meets the eligibility requirements for 4 straight quarters, he wants to propose some regulatory relief for those banks.    And he talks about eliminating the stress-testing requirement under Section 165 of Dodd-Frank; relaxing certain aspects of Basel capital standards and risk-weighted asset calculations; eliminating entire schedules on call reports, including schedules related to trading assets and liabilities and derivatives and certain other capital requirement calculations; and, also, lengthening the examination schedule from 12 months to 18 months so they are not getting examined so often, because that can be expensive as well.    What about that whole analysis? I can't ignore the similarity between your own comments and what Chair Hoenig is proposing. Is that something we could look at not only for the smaller community banks but also to some of these regional banks that might be operating prudently?</t>
   </si>
   <si>
@@ -508,9 +463,6 @@
     <t>412405</t>
   </si>
   <si>
-    <t>Scott R. Tipton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman.    As we are talking about soundness, which we can all certainly support, I think we need to be mindful that we are impacting businesses at home and people's jobs.    And, Mr. Simmons, in your written testimony, you establish that Zions has very conservative limits on some of your commercial lending.    Since Zions' primary business model does involve commercial lending and many of the aspects of your loans being under $5 million in size, has this regulatory regime impacted your ability to be able to actually make some of those loans in Zions' footprint?</t>
   </si>
   <si>
@@ -562,9 +514,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman.    And I thank all of you for being here today.    Before passage of Dodd-Frank, the term ``systemically important'' barely registered for the average American. Yet here we are, almost 5 years later to the day, and the term ``SIFI'' has become almost commonplace for most financial institutions.    As we have discussed today, Zions Bank, which operates one of their community banks, Amegy, in my home State of Texas, is the smallest SIFI that exists. The time, expense, and energy that it takes a bank of their size to comply with regulation after regulation, in my opinion, is simply not acceptable.    As an original cosponsor of Mr. Luetkemeyer's bill, I strongly support his effort to reform the SIFI designation. Setting arbitrary thresholds, whether that be $50 billion or $500 billion, to me, is counterproductive. Plain and simple, banks, whether they are big or small, need to be able to simply compete.    So my first question to you, Mr. Simmons, is this: You state in your testimony that your banking activities are very traditional in nature--deposits, making loans, and providing your customer with a high degree of service, with a focus on lending to small businesses.    As a small-business owner myself for 44 years--I am a car dealer, I am in the car business--I rely on banks for loans. And, in fact, there hasn't been a day--I don't know if I should say this braggingly or not, but there hasn't been a day in my business career I haven't been out of debt.    Now, can you explain to me how being designated as a SIFI impacts your bank's ability to make small-business loans?</t>
   </si>
   <si>
@@ -604,9 +553,6 @@
     <t>412639</t>
   </si>
   <si>
-    <t>Tom Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman.    And thanks to the panel for being here all afternoon.    Dr. Barth, before we took the break, you testified that the $50 billion threshold is ``entirely inappropriate'' for measuring whether an entity falls within the definition of a SIFI. You also testified that the $50 billion threshold is ``totally arbitrary and static.''    Just for the record, is it possible for you to expand on that last statement, the ``totally arbitrary and static?''</t>
   </si>
   <si>
@@ -673,9 +619,6 @@
     <t>412447</t>
   </si>
   <si>
-    <t>Frank C. Guinta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guinta. Thank you, Mr. Chairman.    Thank you all for coming here and indulging our first vote series, and we appreciate it.    As we know, Section 165 of Dodd-Frank requires the Federal Reserve Board to apply enhanced prudential standards to bank holding companies with total consolidated assets of $50 billion or more. Thirty-seven bank holdings currently have assets greater than $50 billion that are subject to enhanced supervision.    Under that same section, a bank holding company with total consolidated assets of $50 billion or more must comply with and hold capital equal to--or equal with the requirements of regulations adopted by the Federal Reserve.    Mr. Kini, in your testimony you stated that Section 165 does not allow the Federal Reserve to raise the $50 billion threshold or to avoid applying the mandatory enhanced prudential standards to any set of greater-than-$50-billion asset bank holding companies. This provision only allows the Federal Reserve to vary application of enhanced prudential standards.    Does this give regulators enough flexibility to ensure that institutions above the $50 billion threshold are not overburdened by tougher rules?</t>
   </si>
   <si>
@@ -697,9 +640,6 @@
     <t>412656</t>
   </si>
   <si>
-    <t>Mia B. Love</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Love. Thank you, Mr. Chairman.    First of all, I would like to thank all of you for being here today, especially Mr. Simmons from the great State of Utah. I really appreciate having some Utah testimony here today, so thank you so much for being here and answering questions for all of us.    I wanted to focus a little bit on the things that I have heard in terms of the 500 employees that have had to have been added. Most of those full-time employees are there for pretty much compliance, internal audits, credit administration, and enterprise risk management--there just to deal with risk management.    So, I am trying to figure out the amount of effort that has gone in just to comply with some of the regulations when it comes to Dodd-Frank. Where does that--paying those 500 additional employees, I just want to hear from you where the cost of that compliance ultimately ends up?</t>
   </si>
   <si>
@@ -769,9 +709,6 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Chairman. I appreciate it.    I am increasingly concerned about what Mr. Harris described as the diminishing returns of increased regulation. When a regional bank is spending $200 million on compliance projects, and hiring 500 additional non-loan-officer staff, it really makes you question who is benefiting. Certainly not the customer looking for a loan to build a home or start a business or pay for a child's education.    And a lot has already been said today by Members on both sides of the aisle about how the current $50 billion threshold for enhanced prudential standards is the wrong one. And I would like to ask Mr. Kini: You, in your testimony, describe how this is not the only place that the number has been applied. In fact, it has become what you termed a ``systemic risk lodestar'' for the Federal financial regulatory agencies.    Where else has this been applied, since you raised that issue? And under today's regulation, what is the difference between being a $49 billion bank and a $51 billion bank?</t>
   </si>
   <si>
@@ -805,9 +742,6 @@
     <t>412584</t>
   </si>
   <si>
-    <t>Denny Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chairman.    Dr. Johnson, for you, sir--and I apologize for not having been here earlier if some of my inquiries are a bit redundant. Please accept my apologies.    But I do understand you to have said in response to a question earlier today that you found much merit, or at least some considerable merit, in Mr. Hoenig's approach of making these determinations on the basis of the level of risk activity as opposed to just asset size. Is that correct?</t>
   </si>
   <si>
@@ -853,9 +787,6 @@
     <t>412570</t>
   </si>
   <si>
-    <t>Keith J. Rothfus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman.    And I would like to go back to the beginning, when the chairman asked a couple of questions. And, Dr. Kupiec, I want to address this to your attention.    Section 165 of Dodd-Frank provides that the Federal Reserve shall establish enhanced prudential standards for bank holding companies with consolidated assets of $50 billion or more ``in order to prevent or mitigate risks to the financial stability of the United States.''    I wonder if I have been hearing some revisionist history lately. With some defense of the $50 billion threshold, supporters have suggested that these institutions as low as $50 billion could pose a risk, not for the financial stability of the United States, but pose a risk for a region of the country, which is sufficient for a SIFI designation. Or, in the alternative, they would argue that two or more of these institutions could fail at the same time and could collectively pose a systemic risk.    I guess my question is, do SIFI designations that are ostensibly justified by regional risk or by the risk of multiple institutions all failing at the same time comport with the text and intent of the law, which talked about institutions affecting the financial stability of the United States?</t>
   </si>
   <si>
@@ -893,9 +824,6 @@
   </si>
   <si>
     <t>412541</t>
-  </si>
-  <si>
-    <t>Andy Barr</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman.    And thank you to the witnesses.    We have heard repeatedly today from many of you all that the $50 billion asset threshold is arbitrary and unrealistically low.    If you take community banks in the aggregate and look at their assets combined and compare them, say, with Zion Bank's $58 billion size, and you look at the number of community banks that have been acquired or have failed since the enactment of the Dodd-Frank Act, the numbers are quite startling. By year-end 2010, there were 7,657 banks in the United States. By the first quarter of 2015, that number had declined to 6,419.    And if you look at small banks and de novo charters, newly formed banks, according to a March 2015 Federal Reserve Bank of Richmond study, there were only 4 de novo, newly formed banks total in the last several years, compared to a yearly average of more than 100 from 2002 to 2008.    If you add all of that up and you see the consolidation and you see that there are about 1,200 fewer banks today than there were when Dodd-Frank was enacted, you are talking about a pretty significant loss in assets or at least concentration of assets in larger, more systemically important institutions.    So what is the difference, from a financial stability standpoint, from a systemic risk standpoint, between the prospect that a failure of a $58 billion small regional bank would have on our economy versus the actual impact of the Dodd-Frank Act on community banks, which has been a dramatic consolidation and elimination of these small community banks?    Would anyone care to respond to that analysis?    Does the fact that there is consolidation in the industry and the fact that there are very few new charters and the fact that there are a lot of community banks going out of the business, when, in the aggregate, constitute a pretty significant asset size, maybe larger in the aggregate than a $58 million bank? Does that concern anyone?</t>
@@ -1324,11 +1252,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1348,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1376,11 +1300,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1402,11 +1324,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1426,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1454,11 +1372,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1478,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1506,11 +1420,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1530,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1558,11 +1468,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1582,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1610,11 +1516,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1634,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1662,11 +1564,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1686,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1714,11 +1612,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1738,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1766,11 +1660,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1790,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1816,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1842,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1868,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1894,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1920,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1946,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1972,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1998,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2026,11 +1900,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2050,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2076,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2102,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2128,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2154,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2180,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2206,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
         <v>49</v>
-      </c>
-      <c r="H36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2232,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2258,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2284,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2310,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2336,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2362,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2388,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2414,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2440,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2466,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2494,11 +2332,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2518,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2544,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2570,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2596,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2622,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2648,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2674,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>68</v>
-      </c>
-      <c r="G54" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2700,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2726,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" t="s">
-        <v>69</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2754,11 +2572,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2778,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2804,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2830,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2856,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2882,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2908,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2934,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2960,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2986,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>81</v>
-      </c>
-      <c r="G66" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3012,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3038,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3066,11 +2860,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3090,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3116,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3142,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
-      </c>
-      <c r="G72" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3168,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3194,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
-      </c>
-      <c r="G74" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3220,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3246,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
-      </c>
-      <c r="G76" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3272,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3298,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
-      </c>
-      <c r="G78" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3326,11 +3100,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3350,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
-      </c>
-      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
         <v>96</v>
-      </c>
-      <c r="H80" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3378,11 +3148,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3402,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
-      </c>
-      <c r="G82" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3428,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3454,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
-      </c>
-      <c r="G84" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3480,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3506,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
-      </c>
-      <c r="G86" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3532,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3558,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3584,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3610,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
-      </c>
-      <c r="G90" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3636,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3662,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
         <v>109</v>
-      </c>
-      <c r="G92" t="s">
-        <v>110</v>
-      </c>
-      <c r="H92" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3688,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3714,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3742,11 +3484,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3766,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>125</v>
-      </c>
-      <c r="G96" t="s">
-        <v>126</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3792,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3818,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
-      </c>
-      <c r="G98" t="s">
-        <v>126</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3844,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3870,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3896,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3922,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3948,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3974,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4000,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4026,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4054,11 +3772,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4078,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G108" t="s">
+        <v>113</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>126</v>
-      </c>
-      <c r="H108" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4106,11 +3820,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4130,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>141</v>
-      </c>
-      <c r="G110" t="s">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4156,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4182,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>141</v>
-      </c>
-      <c r="G112" t="s">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4208,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4234,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>141</v>
-      </c>
-      <c r="G114" t="s">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4260,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4286,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>141</v>
-      </c>
-      <c r="G116" t="s">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4312,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4338,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>141</v>
-      </c>
-      <c r="G118" t="s">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4364,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4390,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>141</v>
-      </c>
-      <c r="G120" t="s">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4418,11 +4108,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4442,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>155</v>
-      </c>
-      <c r="G122" t="s">
-        <v>156</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4468,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4494,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>155</v>
-      </c>
-      <c r="G124" t="s">
-        <v>156</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4520,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4546,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>155</v>
-      </c>
-      <c r="G126" t="s">
-        <v>156</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4574,11 +4252,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4598,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>163</v>
-      </c>
-      <c r="G128" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4624,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4650,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>163</v>
-      </c>
-      <c r="G130" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4676,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4702,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>163</v>
-      </c>
-      <c r="G132" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4728,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
         <v>20</v>
-      </c>
-      <c r="H133" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4754,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>163</v>
-      </c>
-      <c r="G134" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4780,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4806,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>163</v>
-      </c>
-      <c r="G136" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4832,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4858,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>163</v>
-      </c>
-      <c r="G138" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4884,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4910,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>163</v>
-      </c>
-      <c r="G140" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4936,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4962,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>163</v>
-      </c>
-      <c r="G142" t="s">
-        <v>164</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4990,11 +4636,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5016,11 +4660,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5040,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>181</v>
-      </c>
-      <c r="G145" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5066,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5092,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>181</v>
-      </c>
-      <c r="G147" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5118,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5144,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>181</v>
-      </c>
-      <c r="G149" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5170,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5196,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>181</v>
-      </c>
-      <c r="G151" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5222,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5248,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>181</v>
-      </c>
-      <c r="G153" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5274,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5300,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>181</v>
-      </c>
-      <c r="G155" t="s">
-        <v>182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5328,11 +4948,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5352,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>195</v>
-      </c>
-      <c r="G157" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5378,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5404,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>195</v>
-      </c>
-      <c r="G159" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5430,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5456,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>195</v>
-      </c>
-      <c r="G161" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5482,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
         <v>20</v>
-      </c>
-      <c r="H162" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5508,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>195</v>
-      </c>
-      <c r="G163" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5534,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
         <v>20</v>
-      </c>
-      <c r="H164" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5560,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>195</v>
-      </c>
-      <c r="G165" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5586,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
         <v>20</v>
-      </c>
-      <c r="H166" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5612,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>195</v>
-      </c>
-      <c r="G167" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5638,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5664,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>195</v>
-      </c>
-      <c r="G169" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5690,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5716,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>195</v>
-      </c>
-      <c r="G171" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5742,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5768,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>195</v>
-      </c>
-      <c r="G173" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5794,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5820,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>195</v>
-      </c>
-      <c r="G175" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5846,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5872,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>195</v>
-      </c>
-      <c r="G177" t="s">
+        <v>178</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
         <v>196</v>
-      </c>
-      <c r="H177" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5898,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5924,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>195</v>
-      </c>
-      <c r="G179" t="s">
-        <v>196</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5952,11 +5524,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5976,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>218</v>
-      </c>
-      <c r="G181" t="s">
-        <v>219</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6002,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6028,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>218</v>
-      </c>
-      <c r="G183" t="s">
-        <v>219</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6054,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6080,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>218</v>
-      </c>
-      <c r="G185" t="s">
-        <v>219</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6108,11 +5668,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6132,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>226</v>
-      </c>
-      <c r="G187" t="s">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6158,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>19</v>
-      </c>
-      <c r="G188" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6184,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>226</v>
-      </c>
-      <c r="G189" t="s">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6210,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6236,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>226</v>
-      </c>
-      <c r="G191" t="s">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6262,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6288,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>19</v>
-      </c>
-      <c r="G193" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6314,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>226</v>
-      </c>
-      <c r="G194" t="s">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6340,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
-      </c>
-      <c r="G195" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6366,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6392,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>226</v>
-      </c>
-      <c r="G197" t="s">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6418,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6444,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>226</v>
-      </c>
-      <c r="G199" t="s">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6470,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6496,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>226</v>
-      </c>
-      <c r="G201" t="s">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6524,11 +6052,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6548,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6574,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6600,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6626,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6652,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6680,11 +6196,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6706,11 +6220,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6730,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>250</v>
-      </c>
-      <c r="G210" t="s">
-        <v>251</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6756,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6782,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>250</v>
-      </c>
-      <c r="G212" t="s">
-        <v>251</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6808,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>19</v>
-      </c>
-      <c r="G213" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6834,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>250</v>
-      </c>
-      <c r="G214" t="s">
-        <v>251</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6860,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>19</v>
-      </c>
-      <c r="G215" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6886,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>250</v>
-      </c>
-      <c r="G216" t="s">
-        <v>251</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6912,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>19</v>
-      </c>
-      <c r="G217" t="s">
-        <v>77</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6938,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>250</v>
-      </c>
-      <c r="G218" t="s">
-        <v>251</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6966,11 +6460,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6990,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>262</v>
-      </c>
-      <c r="G220" t="s">
-        <v>263</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7016,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>19</v>
-      </c>
-      <c r="G221" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7042,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>262</v>
-      </c>
-      <c r="G222" t="s">
-        <v>263</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7068,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
-      </c>
-      <c r="G223" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7094,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>262</v>
-      </c>
-      <c r="G224" t="s">
-        <v>263</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7120,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>19</v>
-      </c>
-      <c r="G225" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7146,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>262</v>
-      </c>
-      <c r="G226" t="s">
-        <v>263</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7172,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7198,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>262</v>
-      </c>
-      <c r="G228" t="s">
-        <v>263</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7224,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7250,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>262</v>
-      </c>
-      <c r="G230" t="s">
-        <v>263</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7276,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>19</v>
-      </c>
-      <c r="G231" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7302,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>262</v>
-      </c>
-      <c r="G232" t="s">
-        <v>263</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7330,11 +6796,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7354,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>278</v>
-      </c>
-      <c r="G234" t="s">
-        <v>279</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7380,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>19</v>
-      </c>
-      <c r="G235" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7406,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>278</v>
-      </c>
-      <c r="G236" t="s">
-        <v>279</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7432,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7458,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>278</v>
-      </c>
-      <c r="G238" t="s">
-        <v>279</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7484,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7510,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>278</v>
-      </c>
-      <c r="G240" t="s">
-        <v>279</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7536,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7562,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>278</v>
-      </c>
-      <c r="G242" t="s">
-        <v>279</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7588,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7614,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>278</v>
-      </c>
-      <c r="G244" t="s">
-        <v>279</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7642,11 +7084,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7666,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>292</v>
-      </c>
-      <c r="G246" t="s">
-        <v>293</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7692,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>19</v>
-      </c>
-      <c r="G247" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7718,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>292</v>
-      </c>
-      <c r="G248" t="s">
-        <v>293</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7744,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7770,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>292</v>
-      </c>
-      <c r="G250" t="s">
-        <v>293</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7796,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>19</v>
-      </c>
-      <c r="G251" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7822,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>292</v>
-      </c>
-      <c r="G252" t="s">
-        <v>293</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7848,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>19</v>
-      </c>
-      <c r="G253" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7874,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>292</v>
-      </c>
-      <c r="G254" t="s">
-        <v>293</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7902,11 +7324,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
